--- a/student list.xlsx
+++ b/student list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EE488D-F94C-4225-AA45-8B8AF51E4094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F16776-C40D-412B-BDDA-40F0A644EB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
   <si>
     <t>Sr No.</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Adhiraj Kate</t>
+  </si>
+  <si>
+    <t>Web Devlopment Internship 2024 (Week 2)</t>
   </si>
 </sst>
 </file>
@@ -396,6 +399,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,9 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="B2:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,15 +714,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -1107,7 +1110,7 @@
       <c r="F23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="19"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -1157,12 +1160,367 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C9C37C-F6D8-4B8C-8D27-CA08E1AF3E8D}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45453</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="17">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="17">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="17">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="17">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="15">
+        <v>22</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1179,24 +1537,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F16776-C40D-412B-BDDA-40F0A644EB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF47220-3AB7-497E-A95E-24B33AFBC0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="33">
   <si>
     <t>Sr No.</t>
   </si>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C9C37C-F6D8-4B8C-8D27-CA08E1AF3E8D}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,7 +1192,9 @@
       <c r="D3" s="4">
         <v>45453</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>45454</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
@@ -1209,7 +1211,9 @@
       <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="16"/>
       <c r="H4" s="1"/>
@@ -1224,7 +1228,9 @@
       <c r="D5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="17"/>
       <c r="H5" s="2"/>
@@ -1239,7 +1245,9 @@
       <c r="D6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="16"/>
       <c r="H6" s="1"/>
@@ -1267,7 +1275,9 @@
       <c r="D8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="16"/>
       <c r="H8" s="1"/>
@@ -1282,7 +1292,9 @@
       <c r="D9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
@@ -1295,7 +1307,9 @@
         <v>9</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="16"/>
       <c r="H10" s="1"/>
@@ -1325,7 +1339,9 @@
       <c r="D12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="14"/>
       <c r="G12" s="16"/>
       <c r="H12" s="1"/>
@@ -1340,7 +1356,9 @@
       <c r="D13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="17"/>
       <c r="H13" s="2"/>
@@ -1353,7 +1371,9 @@
         <v>13</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="16"/>
       <c r="H14" s="1"/>
@@ -1396,7 +1416,9 @@
       <c r="D17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="17"/>
       <c r="H17" s="2"/>
@@ -1409,7 +1431,9 @@
         <v>17</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="14"/>
       <c r="G18" s="16"/>
       <c r="H18" s="1"/>
@@ -1452,7 +1476,9 @@
       <c r="D21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F21" s="15"/>
       <c r="G21" s="17"/>
       <c r="H21" s="2"/>
@@ -1467,7 +1493,9 @@
       <c r="D22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="14"/>
       <c r="G22" s="16"/>
       <c r="H22" s="1"/>
@@ -1482,7 +1510,9 @@
       <c r="D23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="22"/>
       <c r="H23" s="19"/>
@@ -1497,7 +1527,9 @@
       <c r="D24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F24" s="14"/>
       <c r="G24" s="16"/>
       <c r="H24" s="1"/>
@@ -1512,7 +1544,9 @@
       <c r="D25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF47220-3AB7-497E-A95E-24B33AFBC0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76D766-2989-4D35-9531-112B5E7FDA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="33">
   <si>
     <t>Sr No.</t>
   </si>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C9C37C-F6D8-4B8C-8D27-CA08E1AF3E8D}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1195,9 @@
       <c r="E3" s="4">
         <v>45454</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>45455</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
         <v>22</v>
@@ -1231,7 +1233,9 @@
       <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="17"/>
       <c r="H5" s="2"/>
     </row>
@@ -1261,7 +1265,9 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="2"/>
     </row>
@@ -1295,7 +1301,9 @@
       <c r="E9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="2"/>
     </row>
@@ -1310,7 +1318,9 @@
       <c r="E10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="1"/>
     </row>
@@ -1342,7 +1352,9 @@
       <c r="E12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="1"/>
     </row>
@@ -1374,7 +1386,9 @@
       <c r="E14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="1"/>
     </row>
@@ -1389,7 +1403,9 @@
         <v>28</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="2"/>
     </row>
@@ -1402,7 +1418,9 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="1"/>
     </row>
@@ -1462,7 +1480,9 @@
         <v>28</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="1"/>
     </row>
@@ -1479,7 +1499,9 @@
       <c r="E21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="17"/>
       <c r="H21" s="2"/>
     </row>
@@ -1496,7 +1518,9 @@
       <c r="E22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="1"/>
     </row>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76D766-2989-4D35-9531-112B5E7FDA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C9D435-703E-4E98-AD16-5E71DC8BB942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="33">
   <si>
     <t>Sr No.</t>
   </si>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C9C37C-F6D8-4B8C-8D27-CA08E1AF3E8D}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,7 +1198,9 @@
       <c r="F3" s="4">
         <v>45455</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <v>45457</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1236,7 +1238,9 @@
       <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -1253,7 +1257,9 @@
         <v>28</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1268,7 +1274,9 @@
       <c r="F7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1285,7 +1293,9 @@
         <v>28</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1304,7 +1314,9 @@
       <c r="F9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1336,7 +1348,9 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1355,7 +1369,9 @@
       <c r="F12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1372,7 +1388,9 @@
         <v>28</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -1389,7 +1407,9 @@
       <c r="F14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1406,7 +1426,9 @@
       <c r="F15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1421,7 +1443,9 @@
       <c r="F16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1438,7 +1462,9 @@
         <v>28</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -1453,7 +1479,9 @@
         <v>28</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1483,7 +1511,9 @@
       <c r="F20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -1502,7 +1532,9 @@
       <c r="F21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -1521,7 +1553,9 @@
       <c r="F22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -1555,7 +1589,9 @@
         <v>28</v>
       </c>
       <c r="F24" s="14"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -1572,7 +1608,9 @@
         <v>28</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="H25" s="15"/>
     </row>
   </sheetData>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C9D435-703E-4E98-AD16-5E71DC8BB942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F75D7EE-F9F4-4971-A51E-4F09E1C079BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 " sheetId="1" r:id="rId1"/>
     <sheet name="Week 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Assignment" sheetId="3" r:id="rId3"/>
+    <sheet name="Week 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Assignment" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="34">
   <si>
     <t>Sr No.</t>
   </si>
@@ -126,6 +127,9 @@
   </si>
   <si>
     <t>Web Devlopment Internship 2024 (Week 2)</t>
+  </si>
+  <si>
+    <t>Web Devlopment Internship 2024 (Week 3)</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C9C37C-F6D8-4B8C-8D27-CA08E1AF3E8D}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1622,6 +1626,377 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3826BB-7596-4565-8433-FC05CF46CABA}">
+  <dimension ref="B3:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45462</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="16">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="17">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="17">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="17">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="16">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="17">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="17">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="15">
+        <v>22</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0895A4BE-6540-4277-ACAB-EFBA1C9CB06B}">
   <dimension ref="B1:H22"/>
   <sheetViews>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F75D7EE-F9F4-4971-A51E-4F09E1C079BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AB341-6C8D-40CB-8C67-A99E1E689D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="34">
   <si>
     <t>Sr No.</t>
   </si>
@@ -1630,7 +1630,7 @@
   <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,7 +1659,9 @@
       <c r="D4" s="4">
         <v>45462</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>45463</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
@@ -1691,7 +1693,9 @@
       <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="17"/>
       <c r="H6" s="2"/>
@@ -1706,7 +1710,9 @@
       <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="16"/>
       <c r="H7" s="1"/>
@@ -1721,7 +1727,9 @@
       <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -1736,7 +1744,9 @@
       <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="16"/>
       <c r="H9" s="1"/>
@@ -1751,7 +1761,9 @@
       <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="17"/>
       <c r="H10" s="2"/>
@@ -1766,7 +1778,9 @@
       <c r="D11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="16"/>
       <c r="H11" s="1"/>
@@ -1781,7 +1795,9 @@
       <c r="D12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="17"/>
       <c r="H12" s="2"/>
@@ -1809,7 +1825,9 @@
       <c r="D14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="17"/>
       <c r="H14" s="2"/>
@@ -1822,7 +1840,9 @@
         <v>13</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
       <c r="H15" s="1"/>
@@ -1837,7 +1857,9 @@
       <c r="D16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="17"/>
       <c r="H16" s="2"/>
@@ -1867,7 +1889,9 @@
       <c r="D18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="17"/>
       <c r="H18" s="2"/>
@@ -1882,7 +1906,9 @@
       <c r="D19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="1"/>
@@ -1897,7 +1923,9 @@
       <c r="D20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="17"/>
       <c r="H20" s="2"/>
@@ -1912,7 +1940,9 @@
       <c r="D21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F21" s="14"/>
       <c r="G21" s="16"/>
       <c r="H21" s="1"/>
@@ -1927,7 +1957,9 @@
       <c r="D22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="17"/>
       <c r="H22" s="2"/>
@@ -1942,7 +1974,9 @@
       <c r="D23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="16"/>
       <c r="H23" s="1"/>
@@ -1970,7 +2004,9 @@
       <c r="D25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F25" s="14"/>
       <c r="G25" s="16"/>
       <c r="H25" s="1"/>
@@ -1983,7 +2019,9 @@
         <v>31</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AB341-6C8D-40CB-8C67-A99E1E689D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C863C419-3697-4191-8E9E-FB98434B5F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="34">
   <si>
     <t>Sr No.</t>
   </si>
@@ -1630,7 +1630,7 @@
   <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1662,7 +1662,9 @@
       <c r="E4" s="4">
         <v>45463</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4">
+        <v>45464</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
         <v>22</v>
@@ -1679,7 +1681,9 @@
         <v>28</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="1"/>
     </row>
@@ -1696,7 +1700,9 @@
       <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="2"/>
     </row>
@@ -1730,7 +1736,9 @@
       <c r="E8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
     </row>
@@ -1747,7 +1755,9 @@
       <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="16"/>
       <c r="H9" s="1"/>
     </row>
@@ -1764,7 +1774,9 @@
       <c r="E10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="2"/>
     </row>
@@ -1843,7 +1855,9 @@
       <c r="E15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="1"/>
     </row>
@@ -1860,7 +1874,9 @@
       <c r="E16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="2"/>
     </row>
@@ -1875,7 +1891,9 @@
         <v>28</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="16"/>
       <c r="H17" s="1"/>
     </row>
@@ -1892,7 +1910,9 @@
       <c r="E18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="2"/>
     </row>
@@ -1909,7 +1929,9 @@
       <c r="E19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G19" s="16"/>
       <c r="H19" s="1"/>
     </row>
@@ -1943,7 +1965,9 @@
       <c r="E21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="1"/>
     </row>
@@ -1977,7 +2001,9 @@
       <c r="E23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="1"/>
     </row>
@@ -2007,7 +2033,9 @@
       <c r="E25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G25" s="16"/>
       <c r="H25" s="1"/>
     </row>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C863C419-3697-4191-8E9E-FB98434B5F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FFC2B4-9171-4CFC-A1F9-842C34261F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="35">
   <si>
     <t>Sr No.</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Web Devlopment Internship 2024 (Week 3)</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1633,7 @@
   <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,7 +1668,9 @@
       <c r="F4" s="4">
         <v>45464</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>45467</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1703,7 +1708,9 @@
       <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -1720,7 +1727,9 @@
         <v>28</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -1739,7 +1748,9 @@
       <c r="F8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -1758,7 +1769,9 @@
       <c r="F9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1777,7 +1790,9 @@
       <c r="F10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1794,7 +1809,9 @@
         <v>28</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1841,7 +1858,9 @@
         <v>28</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1858,7 +1877,9 @@
       <c r="F15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -1877,7 +1898,9 @@
       <c r="F16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1932,7 +1955,9 @@
       <c r="F19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -1949,7 +1974,9 @@
         <v>28</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -1968,7 +1995,9 @@
       <c r="F21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -1985,7 +2014,9 @@
         <v>28</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -2004,7 +2035,9 @@
       <c r="F23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -2017,7 +2050,9 @@
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="22"/>
+      <c r="G24" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="H24" s="19"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -2036,7 +2071,9 @@
       <c r="F25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -2051,7 +2088,9 @@
         <v>28</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="H26" s="15"/>
     </row>
   </sheetData>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FFC2B4-9171-4CFC-A1F9-842C34261F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AA88B8-742B-4330-894C-24F7CB2B1305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 " sheetId="1" r:id="rId1"/>
     <sheet name="Week 2" sheetId="2" r:id="rId2"/>
     <sheet name="Week 3" sheetId="4" r:id="rId3"/>
-    <sheet name="Assignment" sheetId="3" r:id="rId4"/>
+    <sheet name="Week 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Assignment" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="35">
   <si>
     <t>Sr No.</t>
   </si>
@@ -1632,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3826BB-7596-4565-8433-FC05CF46CABA}">
   <dimension ref="B3:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="B3:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2102,6 +2103,379 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFC06FD-233F-4592-8000-96F5ED07DA80}">
+  <dimension ref="B3:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45468</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45469</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45470</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45471</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="16">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="16">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="16">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="17">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="17">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="17">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="16">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="17">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="17">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="15">
+        <v>22</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0895A4BE-6540-4277-ACAB-EFBA1C9CB06B}">
   <dimension ref="B1:H22"/>
   <sheetViews>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AA88B8-742B-4330-894C-24F7CB2B1305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFD1D4F-DFD5-42C3-90C4-118B5078110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="35">
   <si>
     <t>Sr No.</t>
   </si>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFC06FD-233F-4592-8000-96F5ED07DA80}">
   <dimension ref="B3:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2157,7 +2157,9 @@
         <v>3</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="16"/>
       <c r="H5" s="1"/>
@@ -2172,7 +2174,9 @@
       <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="17"/>
       <c r="H6" s="2"/>
@@ -2187,7 +2191,9 @@
       <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="16"/>
       <c r="H7" s="1"/>
@@ -2202,7 +2208,9 @@
       <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
@@ -2217,7 +2225,9 @@
       <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="16"/>
       <c r="H9" s="1"/>
@@ -2232,7 +2242,9 @@
       <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="17"/>
       <c r="H10" s="2"/>
@@ -2258,7 +2270,9 @@
         <v>10</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="17"/>
       <c r="H12" s="2"/>
@@ -2301,7 +2315,9 @@
       <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
       <c r="H15" s="1"/>
@@ -2359,7 +2375,9 @@
       <c r="D19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
       <c r="H19" s="1"/>
@@ -2374,7 +2392,9 @@
       <c r="D20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="17"/>
       <c r="H20" s="2"/>
@@ -2404,7 +2424,9 @@
       <c r="D22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="17"/>
       <c r="H22" s="2"/>
@@ -2419,7 +2441,9 @@
       <c r="D23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="16"/>
       <c r="H23" s="1"/>
@@ -2462,7 +2486,9 @@
       <c r="D26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFD1D4F-DFD5-42C3-90C4-118B5078110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010BE10A-5530-4E66-909A-553AA2B930B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="35">
   <si>
     <t>Sr No.</t>
   </si>
@@ -2106,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFC06FD-233F-4592-8000-96F5ED07DA80}">
   <dimension ref="B3:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2160,7 +2160,9 @@
       <c r="E5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="1"/>
     </row>
@@ -2177,7 +2179,9 @@
       <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="2"/>
     </row>
@@ -2194,7 +2198,9 @@
       <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="16"/>
       <c r="H7" s="1"/>
     </row>
@@ -2211,7 +2217,9 @@
       <c r="E8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="2"/>
     </row>
@@ -2245,7 +2253,9 @@
       <c r="E10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="2"/>
     </row>
@@ -2258,7 +2268,9 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="1"/>
     </row>
@@ -2301,7 +2313,9 @@
         <v>28</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="2"/>
     </row>
@@ -2333,7 +2347,9 @@
         <v>28</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="2"/>
     </row>
@@ -2361,7 +2377,9 @@
         <v>28</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="2"/>
     </row>
@@ -2410,7 +2428,9 @@
         <v>28</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="1"/>
     </row>
@@ -2427,7 +2447,9 @@
       <c r="E22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="G22" s="17"/>
       <c r="H22" s="2"/>
     </row>
@@ -2444,7 +2466,9 @@
       <c r="E23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="1"/>
     </row>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010BE10A-5530-4E66-909A-553AA2B930B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25353F7A-4761-4F76-BC4B-3F9F833EA7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="36">
   <si>
     <t>Sr No.</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Web Devlopment Internship 2024 (Week 4)</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2110,7 @@
   <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2117,7 +2120,7 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -2182,7 +2185,9 @@
       <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -2237,7 +2242,9 @@
         <v>28</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -2256,7 +2263,9 @@
       <c r="F10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -2299,7 +2308,9 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -2316,7 +2327,9 @@
       <c r="F14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -2350,7 +2363,9 @@
       <c r="F16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -2380,7 +2395,9 @@
       <c r="F18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -2414,7 +2431,9 @@
         <v>28</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -2431,7 +2450,9 @@
       <c r="F21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -2469,7 +2490,9 @@
       <c r="F23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -2514,7 +2537,9 @@
         <v>28</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="H26" s="15"/>
     </row>
   </sheetData>

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25353F7A-4761-4F76-BC4B-3F9F833EA7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4A226-209B-44AB-89D8-8D9FEB7CF0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="36">
   <si>
     <t>Sr No.</t>
   </si>
@@ -2110,12 +2110,13 @@
   <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -2129,7 +2130,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2148,8 +2149,8 @@
       <c r="G4" s="4">
         <v>45471</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
+      <c r="H4" s="4">
+        <v>45475</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -2167,7 +2168,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
@@ -2188,7 +2189,9 @@
       <c r="G6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
@@ -2206,8 +2209,12 @@
       <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
@@ -2226,7 +2233,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
@@ -2245,7 +2252,9 @@
       <c r="G9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
@@ -2266,7 +2275,9 @@
       <c r="G10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
@@ -2281,7 +2292,9 @@
         <v>28</v>
       </c>
       <c r="G11" s="16"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
@@ -2296,7 +2309,7 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
@@ -2311,7 +2324,9 @@
       <c r="G13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
@@ -2330,7 +2345,7 @@
       <c r="G14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
@@ -2347,7 +2362,9 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
@@ -2366,7 +2383,9 @@
       <c r="G16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="16">
@@ -2379,7 +2398,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
@@ -2398,7 +2417,7 @@
       <c r="G18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="16">
@@ -2415,7 +2434,9 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
@@ -2434,7 +2455,9 @@
       <c r="G20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="16">
@@ -2453,7 +2476,9 @@
       <c r="G21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
@@ -2472,7 +2497,9 @@
         <v>28</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
@@ -2493,7 +2520,9 @@
       <c r="G23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
@@ -2506,7 +2535,9 @@
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="16">
@@ -2521,7 +2552,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="14"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="15">
@@ -2540,7 +2571,9 @@
       <c r="G26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/student list.xlsx
+++ b/student list.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\internship\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4A226-209B-44AB-89D8-8D9FEB7CF0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143F8A85-BF2D-433E-8895-B52BEBA5A83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="271" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="379" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1 " sheetId="1" r:id="rId1"/>
     <sheet name="Week 2" sheetId="2" r:id="rId2"/>
     <sheet name="Week 3" sheetId="4" r:id="rId3"/>
     <sheet name="Week 4" sheetId="5" r:id="rId4"/>
-    <sheet name="Assignment" sheetId="3" r:id="rId5"/>
+    <sheet name="Week 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Assignment" sheetId="3" r:id="rId6"/>
+    <sheet name="Groups" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="52">
   <si>
     <t>Sr No.</t>
   </si>
@@ -137,13 +139,61 @@
   </si>
   <si>
     <t>Web Devlopment Internship 2024 (Week 4)</t>
+  </si>
+  <si>
+    <t>Group No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic </t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>Durgesh Jagtap</t>
+  </si>
+  <si>
+    <t>Portfolio Website</t>
+  </si>
+  <si>
+    <t>bio, projects, skills, contact form</t>
+  </si>
+  <si>
+    <t>Blog Website</t>
+  </si>
+  <si>
+    <t>View Blogs, Add Blogs and Delete blog</t>
+  </si>
+  <si>
+    <t>Quiz App</t>
+  </si>
+  <si>
+    <t>Login/Register (admin), admin can add questions, delete questions, view score</t>
+  </si>
+  <si>
+    <t>Password Manager</t>
+  </si>
+  <si>
+    <t>Login/Register , Store password , delete my password and view passwords</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +211,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -355,11 +411,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -416,6 +509,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,6 +525,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="B2:H25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,15 +854,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -1173,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C9C37C-F6D8-4B8C-8D27-CA08E1AF3E8D}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,15 +1312,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -1637,7 +1766,7 @@
   <dimension ref="B3:H26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="B3:H26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,15 +1775,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -2109,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFC06FD-233F-4592-8000-96F5ED07DA80}">
   <dimension ref="B3:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,17 +2249,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2149,8 +2278,8 @@
       <c r="G4" s="4">
         <v>45471</v>
       </c>
-      <c r="H4" s="4">
-        <v>45475</v>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -2189,9 +2318,7 @@
       <c r="G6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
@@ -2212,9 +2339,7 @@
       <c r="G7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
@@ -2252,9 +2377,7 @@
       <c r="G9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
@@ -2275,9 +2398,7 @@
       <c r="G10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
@@ -2292,9 +2413,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="16"/>
-      <c r="H11" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
@@ -2324,9 +2443,7 @@
       <c r="G13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
@@ -2362,9 +2479,7 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
@@ -2383,9 +2498,7 @@
       <c r="G16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="16">
@@ -2434,9 +2547,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
@@ -2455,9 +2566,7 @@
       <c r="G20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="16">
@@ -2476,9 +2585,7 @@
       <c r="G21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
@@ -2497,9 +2604,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
@@ -2520,9 +2625,7 @@
       <c r="G23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
@@ -2535,9 +2638,7 @@
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="16">
@@ -2571,9 +2672,7 @@
       <c r="G26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="H26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2584,35 +2683,475 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBDD729-319E-40E4-B784-AF31640FBFF6}">
+  <dimension ref="B2:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45475</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45476</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45477</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45478</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="17">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="17">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="17">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="17">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="15">
+        <v>22</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0895A4BE-6540-4277-ACAB-EFBA1C9CB06B}">
   <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
@@ -2880,4 +3419,323 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A93D26-75C6-4EFE-96FB-D5BD8EC0FB54}">
+  <dimension ref="B3:F25"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="8.88671875" style="21"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>6</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>7</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>8</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>9</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>10</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>11</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="14">
+        <v>13</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="14">
+        <v>14</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="14">
+        <v>15</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="14">
+        <v>16</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="14">
+        <v>17</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="15">
+        <v>18</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="15">
+        <v>19</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="15">
+        <v>20</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="15">
+        <v>21</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="15">
+        <v>22</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="E21:E25"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>